--- a/chi.xlsx
+++ b/chi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS2-03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179CE736-5D95-4D64-BE44-9A201F41182B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{703470DF-FA70-4330-AC4F-55823D4207E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{15F48882-F478-40E4-9D73-1C52A0ECDA2F}"/>
   </bookViews>
